--- a/temp2/Vozmozhnosti.xlsx
+++ b/temp2/Vozmozhnosti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usenk\Desktop\Vch\temp2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usenk\Desktop\Project\Navigator\temp2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA023E6A-886D-4DDE-8871-EA3E668EBE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9732D8E-ADF0-4FE4-88EB-D52978EE6792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="2355" windowWidth="21600" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CQ78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="BT1" workbookViewId="0">
+      <selection activeCell="CM14" sqref="CM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,286 +1506,286 @@
         <v>4001</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="N4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="P4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Q4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="R4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="U4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="V4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="W4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="X4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Y4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="Z4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AA4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AB4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AD4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AE4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AF4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AG4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AH4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AI4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AJ4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AK4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AL4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AM4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AN4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AO4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AP4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AQ4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AR4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AS4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AT4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AU4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AV4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AW4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AX4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AY4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AZ4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BA4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BB4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BC4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BD4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BE4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BF4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BG4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BH4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BI4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BJ4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BK4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BL4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BM4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BN4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BO4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BP4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BQ4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BR4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BS4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BT4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BU4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BV4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BW4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BX4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BY4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="BZ4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CA4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CB4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CC4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CD4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CE4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CF4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CG4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CH4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CI4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CJ4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CK4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CL4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CM4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CN4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CO4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CP4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="CQ4">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:95" x14ac:dyDescent="0.25">
@@ -1793,286 +1793,286 @@
         <v>4002</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BF5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BL5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BM5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BN5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BP5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BQ5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BR5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BS5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BU5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CD5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CE5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CF5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CJ5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CM5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CN5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CO5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CP5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:95" x14ac:dyDescent="0.25">
@@ -2095,40 +2095,40 @@
         <v>10</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>10</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6">
         <v>10</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S6">
         <v>10</v>
@@ -2143,64 +2143,64 @@
         <v>10</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y6">
         <v>10</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE6">
         <v>10</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH6">
         <v>10</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ6">
         <v>10</v>
@@ -2209,31 +2209,31 @@
         <v>10</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB6">
         <v>10</v>
@@ -2251,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="BG6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH6">
         <v>10</v>
@@ -2287,10 +2287,10 @@
         <v>10</v>
       </c>
       <c r="BS6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BU6">
         <v>10</v>
@@ -2299,13 +2299,13 @@
         <v>10</v>
       </c>
       <c r="BW6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BX6">
         <v>10</v>
       </c>
       <c r="BY6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BZ6">
         <v>10</v>
@@ -2335,13 +2335,13 @@
         <v>10</v>
       </c>
       <c r="CI6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CJ6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CL6">
         <v>10</v>
@@ -2356,7 +2356,7 @@
         <v>10</v>
       </c>
       <c r="CP6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ6">
         <v>10</v>
@@ -2367,10 +2367,10 @@
         <v>4011</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -2382,40 +2382,40 @@
         <v>10</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7">
         <v>10</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>10</v>
@@ -2430,64 +2430,64 @@
         <v>10</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y7">
         <v>10</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ7">
         <v>10</v>
@@ -2496,31 +2496,31 @@
         <v>10</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU7">
         <v>10</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB7">
         <v>10</v>
@@ -2529,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE7">
         <v>10</v>
@@ -2538,7 +2538,7 @@
         <v>10</v>
       </c>
       <c r="BG7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH7">
         <v>10</v>
@@ -2559,7 +2559,7 @@
         <v>10</v>
       </c>
       <c r="BN7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO7">
         <v>10</v>
@@ -2574,10 +2574,10 @@
         <v>10</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BU7">
         <v>10</v>
@@ -2586,13 +2586,13 @@
         <v>10</v>
       </c>
       <c r="BW7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BX7">
         <v>10</v>
       </c>
       <c r="BY7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BZ7">
         <v>10</v>
@@ -2622,16 +2622,16 @@
         <v>10</v>
       </c>
       <c r="CI7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CJ7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK7">
         <v>10</v>
       </c>
       <c r="CL7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CM7">
         <v>10</v>
@@ -2643,10 +2643,10 @@
         <v>10</v>
       </c>
       <c r="CP7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ7">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:95" x14ac:dyDescent="0.25">
@@ -2654,55 +2654,55 @@
         <v>4012</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q8">
         <v>10</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S8">
         <v>10</v>
@@ -2711,70 +2711,70 @@
         <v>10</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V8">
         <v>10</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y8">
         <v>10</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ8">
         <v>10</v>
@@ -2783,31 +2783,31 @@
         <v>10</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB8">
         <v>10</v>
@@ -2816,7 +2816,7 @@
         <v>10</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE8">
         <v>10</v>
@@ -2825,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="BG8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH8">
         <v>10</v>
@@ -2846,7 +2846,7 @@
         <v>10</v>
       </c>
       <c r="BN8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO8">
         <v>10</v>
@@ -2861,25 +2861,25 @@
         <v>10</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BU8">
         <v>10</v>
       </c>
       <c r="BV8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BX8">
         <v>10</v>
       </c>
       <c r="BY8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BZ8">
         <v>10</v>
@@ -2888,7 +2888,7 @@
         <v>10</v>
       </c>
       <c r="CB8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CC8">
         <v>10</v>
@@ -2900,7 +2900,7 @@
         <v>10</v>
       </c>
       <c r="CF8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG8">
         <v>10</v>
@@ -2912,10 +2912,10 @@
         <v>10</v>
       </c>
       <c r="CJ8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CL8">
         <v>10</v>
@@ -2930,10 +2930,10 @@
         <v>10</v>
       </c>
       <c r="CP8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:95" x14ac:dyDescent="0.25">
@@ -2956,40 +2956,40 @@
         <v>10</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q9">
         <v>10</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -3004,64 +3004,64 @@
         <v>10</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y9">
         <v>10</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ9">
         <v>10</v>
@@ -3070,37 +3070,37 @@
         <v>10</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB9">
         <v>10</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BD9">
         <v>10</v>
@@ -3112,7 +3112,7 @@
         <v>10</v>
       </c>
       <c r="BG9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH9">
         <v>10</v>
@@ -3133,7 +3133,7 @@
         <v>10</v>
       </c>
       <c r="BN9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO9">
         <v>10</v>
@@ -3148,10 +3148,10 @@
         <v>10</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BU9">
         <v>10</v>
@@ -3160,13 +3160,13 @@
         <v>10</v>
       </c>
       <c r="BW9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BX9">
         <v>10</v>
       </c>
       <c r="BY9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BZ9">
         <v>10</v>
@@ -3178,7 +3178,7 @@
         <v>10</v>
       </c>
       <c r="CC9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CD9">
         <v>10</v>
@@ -3190,19 +3190,19 @@
         <v>10</v>
       </c>
       <c r="CG9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH9">
         <v>10</v>
       </c>
       <c r="CI9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CJ9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CL9">
         <v>10</v>
@@ -3217,10 +3217,10 @@
         <v>10</v>
       </c>
       <c r="CP9">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:95" x14ac:dyDescent="0.25">
@@ -3228,55 +3228,55 @@
         <v>4014</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>10</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q10">
         <v>10</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S10">
         <v>10</v>
@@ -3285,121 +3285,121 @@
         <v>10</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V10">
         <v>10</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y10">
         <v>10</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE10">
         <v>10</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP10">
         <v>10</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR10">
         <v>10</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV10">
         <v>10</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BC10">
         <v>10</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BE10">
         <v>10</v>
       </c>
       <c r="BF10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BG10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH10">
         <v>10</v>
@@ -3411,7 +3411,7 @@
         <v>10</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BL10">
         <v>10</v>
@@ -3420,10 +3420,10 @@
         <v>10</v>
       </c>
       <c r="BN10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BP10">
         <v>10</v>
@@ -3435,7 +3435,7 @@
         <v>10</v>
       </c>
       <c r="BS10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT10">
         <v>10</v>
@@ -3444,16 +3444,16 @@
         <v>10</v>
       </c>
       <c r="BV10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BX10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BY10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BZ10">
         <v>10</v>
@@ -3468,13 +3468,13 @@
         <v>10</v>
       </c>
       <c r="CD10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CE10">
         <v>10</v>
       </c>
       <c r="CF10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG10">
         <v>10</v>
@@ -3486,10 +3486,10 @@
         <v>10</v>
       </c>
       <c r="CJ10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CL10">
         <v>10</v>
@@ -3504,10 +3504,10 @@
         <v>10</v>
       </c>
       <c r="CP10">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:95" x14ac:dyDescent="0.25">
@@ -3530,40 +3530,40 @@
         <v>10</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>10</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -3578,61 +3578,61 @@
         <v>10</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y11">
         <v>10</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH11">
         <v>10</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AL11">
         <v>10</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AN11">
         <v>10</v>
       </c>
       <c r="AO11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AP11">
         <v>10</v>
@@ -3644,31 +3644,31 @@
         <v>10</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AU11">
         <v>10</v>
       </c>
       <c r="AV11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BA11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB11">
         <v>10</v>
@@ -3686,7 +3686,7 @@
         <v>10</v>
       </c>
       <c r="BG11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH11">
         <v>10</v>
@@ -3722,25 +3722,25 @@
         <v>10</v>
       </c>
       <c r="BS11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BU11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV11">
         <v>10</v>
       </c>
       <c r="BW11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BX11">
         <v>10</v>
       </c>
       <c r="BY11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BZ11">
         <v>10</v>
@@ -3752,7 +3752,7 @@
         <v>10</v>
       </c>
       <c r="CC11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CD11">
         <v>10</v>
@@ -3773,10 +3773,10 @@
         <v>10</v>
       </c>
       <c r="CJ11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CK11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CL11">
         <v>10</v>
@@ -3791,10 +3791,10 @@
         <v>10</v>
       </c>
       <c r="CP11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CQ11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:95" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S12">
         <v>10</v>
